--- a/01_Background/默沙东CMAX 项目通知书-2020-0605.xlsx
+++ b/01_Background/默沙东CMAX 项目通知书-2020-0605.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anqi\Projects\MSD\2019\OAD_CHC_Audit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LZ\CHC_Project\MSD_CHC_2019\01_Background\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7976A43-C4F2-4245-B16E-0AFE058D8B36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E98142-1BEA-40AE-A46B-B0A9D9617E36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="默沙东CMAX 项目通知书" sheetId="1" r:id="rId1"/>
@@ -18,40 +18,16 @@
     <sheet name="市场定义" sheetId="9" r:id="rId3"/>
     <sheet name="交付格式" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -941,6 +917,135 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -950,139 +1055,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1384,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K47"/>
+  <dimension ref="B1:J47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1413,16 +1389,16 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:10" ht="29.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76"/>
     </row>
     <row r="3" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="6"/>
@@ -1439,10 +1415,10 @@
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="35"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="10"/>
@@ -1454,17 +1430,17 @@
       <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="37"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="37"/>
+      <c r="H5" s="64"/>
       <c r="I5" s="21"/>
       <c r="J5" s="22"/>
     </row>
@@ -1473,17 +1449,17 @@
       <c r="C6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="37"/>
+      <c r="H6" s="64"/>
       <c r="I6" s="21"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
@@ -1491,17 +1467,17 @@
       <c r="C7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="35">
         <v>43987</v>
       </c>
-      <c r="E7" s="39"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="35">
         <v>44196</v>
       </c>
-      <c r="H7" s="39"/>
+      <c r="H7" s="60"/>
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
@@ -1531,31 +1507,31 @@
       <c r="C10" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="6"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="69"/>
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" s="6"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="72"/>
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
@@ -1575,34 +1551,34 @@
       <c r="C14" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B16" s="6"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="72"/>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="2:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -1611,12 +1587,8 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="21"/>
-      <c r="K17" s="3" cm="1">
-        <f t="array" aca="1" ref="K17" ca="1">+K17:K18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="6"/>
       <c r="C18" s="16" t="s">
         <v>11</v>
@@ -1628,109 +1600,109 @@
       <c r="H18" s="7"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="69"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="50"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="6"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="72"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="72"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="6"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="72"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="72"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="6"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="72"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="21"/>
     </row>
-    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="72"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="21"/>
     </row>
-    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="72"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="6"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="72"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
       <c r="I27" s="21"/>
     </row>
-    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="6"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="75"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="56"/>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="6"/>
       <c r="C29" s="16" t="s">
         <v>12</v>
@@ -1742,29 +1714,29 @@
       <c r="H29" s="18"/>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="6"/>
       <c r="C30" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="63"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" spans="2:11" ht="81.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9" ht="81.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="6"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="66"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="47"/>
       <c r="I31" s="21"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" s="6"/>
       <c r="C32" s="16" t="s">
         <v>13</v>
@@ -1778,24 +1750,24 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="6"/>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="35"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" s="6"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="39"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="60"/>
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
@@ -1812,38 +1784,38 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="6"/>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="35"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="38"/>
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B37" s="6"/>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="37"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="64"/>
       <c r="I37" s="21"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B38" s="6"/>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="39"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="60"/>
       <c r="I38" s="21"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
@@ -1860,24 +1832,24 @@
     </row>
     <row r="40" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="6"/>
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="56"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="33"/>
       <c r="I40" s="21"/>
     </row>
     <row r="41" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="6"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="58"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="36"/>
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
@@ -1894,24 +1866,24 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="6"/>
-      <c r="C43" s="76" t="s">
+      <c r="C43" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="56"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="33"/>
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" s="6"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="58"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="36"/>
       <c r="I44" s="21"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
@@ -1928,34 +1900,34 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="6"/>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="35"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="38"/>
       <c r="I46" s="21"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B47" s="19"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="61"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="41"/>
       <c r="I47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C40:H41"/>
-    <mergeCell ref="C46:H47"/>
-    <mergeCell ref="C30:H31"/>
-    <mergeCell ref="C19:H28"/>
-    <mergeCell ref="C43:H44"/>
-    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C36:H36"/>
@@ -1963,12 +1935,12 @@
     <mergeCell ref="C14:H16"/>
     <mergeCell ref="C33:H34"/>
     <mergeCell ref="C10:H12"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C40:H41"/>
+    <mergeCell ref="C46:H47"/>
+    <mergeCell ref="C30:H31"/>
+    <mergeCell ref="C19:H28"/>
+    <mergeCell ref="C43:H44"/>
+    <mergeCell ref="C38:H38"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="3">
@@ -1983,7 +1955,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
